--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb3-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb3-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ephb6</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5010686666666667</v>
+        <v>0.2151756666666667</v>
       </c>
       <c r="H2">
-        <v>1.503206</v>
+        <v>0.645527</v>
       </c>
       <c r="I2">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="J2">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.09912533333333334</v>
+        <v>0.08324533333333334</v>
       </c>
       <c r="N2">
-        <v>0.297376</v>
+        <v>0.249736</v>
       </c>
       <c r="O2">
-        <v>0.04204777601064202</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="P2">
-        <v>0.04204777601064203</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="Q2">
-        <v>0.04966859860622223</v>
+        <v>0.01791237009688889</v>
       </c>
       <c r="R2">
-        <v>0.4470173874560001</v>
+        <v>0.161211330872</v>
       </c>
       <c r="S2">
-        <v>0.02531119945420429</v>
+        <v>0.009100433695931241</v>
       </c>
       <c r="T2">
-        <v>0.0253111994542043</v>
+        <v>0.009100433695931241</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5010686666666667</v>
+        <v>0.2151756666666667</v>
       </c>
       <c r="H3">
-        <v>1.503206</v>
+        <v>0.645527</v>
       </c>
       <c r="I3">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="J3">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>1.374949</v>
       </c>
       <c r="O3">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="P3">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="Q3">
-        <v>0.2296479540548889</v>
+        <v>0.09861852256922221</v>
       </c>
       <c r="R3">
-        <v>2.066831586494</v>
+        <v>0.8875667031229999</v>
       </c>
       <c r="S3">
-        <v>0.1170289746931788</v>
+        <v>0.05010343806974951</v>
       </c>
       <c r="T3">
-        <v>0.1170289746931788</v>
+        <v>0.0501034380697495</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,14 +643,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5010686666666667</v>
+        <v>0.2151756666666667</v>
       </c>
       <c r="H4">
-        <v>1.503206</v>
+        <v>0.645527</v>
       </c>
       <c r="I4">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="J4">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.800003666666667</v>
+        <v>1.097575666666667</v>
       </c>
       <c r="N4">
-        <v>5.400011</v>
+        <v>3.292727</v>
       </c>
       <c r="O4">
-        <v>0.763539939278903</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="P4">
-        <v>0.7635399392789031</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="Q4">
-        <v>0.9019254372517779</v>
+        <v>0.2361715757921111</v>
       </c>
       <c r="R4">
-        <v>8.117328935266</v>
+        <v>2.125544182129</v>
       </c>
       <c r="S4">
-        <v>0.4596226846682219</v>
+        <v>0.1199876819613615</v>
       </c>
       <c r="T4">
-        <v>0.459622684668222</v>
+        <v>0.1199876819613615</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3313226666666667</v>
+        <v>0.5010686666666667</v>
       </c>
       <c r="H5">
-        <v>0.9939680000000001</v>
+        <v>1.503206</v>
       </c>
       <c r="I5">
-        <v>0.3980371411843948</v>
+        <v>0.4172742870736815</v>
       </c>
       <c r="J5">
-        <v>0.3980371411843948</v>
+        <v>0.4172742870736815</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.09912533333333334</v>
+        <v>0.08324533333333334</v>
       </c>
       <c r="N5">
-        <v>0.297376</v>
+        <v>0.249736</v>
       </c>
       <c r="O5">
-        <v>0.04204777601064202</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="P5">
-        <v>0.04204777601064203</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="Q5">
-        <v>0.03284246977422223</v>
+        <v>0.04171162817955557</v>
       </c>
       <c r="R5">
-        <v>0.295582227968</v>
+        <v>0.375404653616</v>
       </c>
       <c r="S5">
-        <v>0.01673657655643773</v>
+        <v>0.02119171860251549</v>
       </c>
       <c r="T5">
-        <v>0.01673657655643773</v>
+        <v>0.02119171860251549</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3313226666666667</v>
+        <v>0.5010686666666667</v>
       </c>
       <c r="H6">
-        <v>0.9939680000000001</v>
+        <v>1.503206</v>
       </c>
       <c r="I6">
-        <v>0.3980371411843948</v>
+        <v>0.4172742870736815</v>
       </c>
       <c r="J6">
-        <v>0.3980371411843948</v>
+        <v>0.4172742870736815</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>1.374949</v>
       </c>
       <c r="O6">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="P6">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="Q6">
-        <v>0.1518505897368889</v>
+        <v>0.2296479540548889</v>
       </c>
       <c r="R6">
-        <v>1.366655307632</v>
+        <v>2.066831586494</v>
       </c>
       <c r="S6">
-        <v>0.07738331001727611</v>
+        <v>0.1166733362463164</v>
       </c>
       <c r="T6">
-        <v>0.07738331001727611</v>
+        <v>0.1166733362463164</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3313226666666667</v>
+        <v>0.5010686666666667</v>
       </c>
       <c r="H7">
-        <v>0.9939680000000001</v>
+        <v>1.503206</v>
       </c>
       <c r="I7">
-        <v>0.3980371411843948</v>
+        <v>0.4172742870736815</v>
       </c>
       <c r="J7">
-        <v>0.3980371411843948</v>
+        <v>0.4172742870736815</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.800003666666667</v>
+        <v>1.097575666666667</v>
       </c>
       <c r="N7">
-        <v>5.400011</v>
+        <v>3.292727</v>
       </c>
       <c r="O7">
-        <v>0.763539939278903</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="P7">
-        <v>0.7635399392789031</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="Q7">
-        <v>0.5963820148497779</v>
+        <v>0.5499607758624445</v>
       </c>
       <c r="R7">
-        <v>5.367438133648</v>
+        <v>4.949646982762</v>
       </c>
       <c r="S7">
-        <v>0.3039172546106809</v>
+        <v>0.2794092322248495</v>
       </c>
       <c r="T7">
-        <v>0.303917254610681</v>
+        <v>0.2794092322248495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.4845693333333334</v>
+      </c>
+      <c r="H8">
+        <v>1.453708</v>
+      </c>
+      <c r="I8">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="J8">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.08324533333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.249736</v>
+      </c>
+      <c r="O8">
+        <v>0.05078606388889115</v>
+      </c>
+      <c r="P8">
+        <v>0.05078606388889115</v>
+      </c>
+      <c r="Q8">
+        <v>0.04033813567644445</v>
+      </c>
+      <c r="R8">
+        <v>0.363043221088</v>
+      </c>
+      <c r="S8">
+        <v>0.02049391159044442</v>
+      </c>
+      <c r="T8">
+        <v>0.02049391159044442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.4845693333333334</v>
+      </c>
+      <c r="H9">
+        <v>1.453708</v>
+      </c>
+      <c r="I9">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="J9">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.4583163333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.374949</v>
+      </c>
+      <c r="O9">
+        <v>0.2796082573516313</v>
+      </c>
+      <c r="P9">
+        <v>0.2796082573516313</v>
+      </c>
+      <c r="Q9">
+        <v>0.2220860400991111</v>
+      </c>
+      <c r="R9">
+        <v>1.998774360892</v>
+      </c>
+      <c r="S9">
+        <v>0.1128314830355654</v>
+      </c>
+      <c r="T9">
+        <v>0.1128314830355654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.4845693333333334</v>
+      </c>
+      <c r="H10">
+        <v>1.453708</v>
+      </c>
+      <c r="I10">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="J10">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.097575666666667</v>
+      </c>
+      <c r="N10">
+        <v>3.292727</v>
+      </c>
+      <c r="O10">
+        <v>0.6696056787594775</v>
+      </c>
+      <c r="P10">
+        <v>0.6696056787594775</v>
+      </c>
+      <c r="Q10">
+        <v>0.5318515090795556</v>
+      </c>
+      <c r="R10">
+        <v>4.786663581716001</v>
+      </c>
+      <c r="S10">
+        <v>0.2702087645732664</v>
+      </c>
+      <c r="T10">
+        <v>0.2702087645732664</v>
       </c>
     </row>
   </sheetData>
